--- a/output_sheet.xlsx
+++ b/output_sheet.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,21 +491,25 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42384.77222222222</v>
+        <v>42384</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vendor Placeholder</t>
+          <t>Vendor Unknown</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15, '16 (Fri) 18</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>1 Cpy Btrmlk Ckn Meal</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>6.79</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -515,33 +519,35 @@
       <c r="G2" t="n">
         <v>0.48</v>
       </c>
-      <c r="H2" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Apply at www.mcstate.com/20509</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42384.77222222222</v>
+        <v>42384</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vendor Placeholder</t>
+          <t>Vendor Unknown</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1 Cpy Btrmlk Ckn Meal</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>3 Mozzarella Sticks</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Food/Drink</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>6.79</v>
+        <v>1.19</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -549,164 +555,15 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>42384.77222222222</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Vendor Placeholder</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1 M Sprite (included with meal)
-  - 1 Cpy Buttermilk Ckn (1P)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>42384.77222222222</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vendor Placeholder</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3 Mozzarella Sticks</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>42384.77222222222</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vendor Placeholder</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>7.98
-  - Tax</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>42384.77222222222</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Vendor Placeholder</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8.46
-  - Cash Tendered</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Apply at www.mcstate.com/20509</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
